--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H2">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I2">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J2">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>69.54746030093433</v>
+        <v>414.0747634772455</v>
       </c>
       <c r="R2">
-        <v>625.9271427084091</v>
+        <v>3726.67287129521</v>
       </c>
       <c r="S2">
-        <v>0.04022705643343639</v>
+        <v>0.1331238564122155</v>
       </c>
       <c r="T2">
-        <v>0.0402270564334364</v>
+        <v>0.1331238564122154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H3">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I3">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J3">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>82.04806627318132</v>
+        <v>138.8925271062356</v>
       </c>
       <c r="R3">
-        <v>738.432596458632</v>
+        <v>1250.03274395612</v>
       </c>
       <c r="S3">
-        <v>0.0474575516912334</v>
+        <v>0.04465355164354592</v>
       </c>
       <c r="T3">
-        <v>0.04745755169123342</v>
+        <v>0.04465355164354592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H4">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I4">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J4">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>10.501628534465</v>
+        <v>23.81115981060056</v>
       </c>
       <c r="R4">
-        <v>94.514656810185</v>
+        <v>214.300438295405</v>
       </c>
       <c r="S4">
-        <v>0.006074263558596604</v>
+        <v>0.007655220021175944</v>
       </c>
       <c r="T4">
-        <v>0.006074263558596605</v>
+        <v>0.007655220021175944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H5">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I5">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J5">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>8.711585644690667</v>
+        <v>7.51562948359</v>
       </c>
       <c r="R5">
-        <v>78.404270802216</v>
+        <v>67.64066535230999</v>
       </c>
       <c r="S5">
-        <v>0.005038882021533398</v>
+        <v>0.002416253460652713</v>
       </c>
       <c r="T5">
-        <v>0.0050388820215334</v>
+        <v>0.002416253460652713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H6">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I6">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J6">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>375.337148662454</v>
+        <v>455.3961707141328</v>
       </c>
       <c r="R6">
-        <v>3378.034337962086</v>
+        <v>4098.565536427195</v>
       </c>
       <c r="S6">
-        <v>0.2170993533836748</v>
+        <v>0.1464085710795858</v>
       </c>
       <c r="T6">
-        <v>0.2170993533836749</v>
+        <v>0.1464085710795858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H7">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I7">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J7">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>15.64154915882033</v>
+        <v>10.79658293835389</v>
       </c>
       <c r="R7">
-        <v>140.773942429383</v>
+        <v>97.169246445185</v>
       </c>
       <c r="S7">
-        <v>0.009047253170649307</v>
+        <v>0.003471070646175665</v>
       </c>
       <c r="T7">
-        <v>0.009047253170649311</v>
+        <v>0.003471070646175665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>32.583341</v>
       </c>
       <c r="I8">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J8">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>22.72462485622856</v>
+        <v>79.92519045407089</v>
       </c>
       <c r="R8">
-        <v>204.521623706057</v>
+        <v>719.3267140866379</v>
       </c>
       <c r="S8">
-        <v>0.0131441861796914</v>
+        <v>0.02569572095719231</v>
       </c>
       <c r="T8">
-        <v>0.0131441861796914</v>
+        <v>0.0256957209571923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>32.583341</v>
       </c>
       <c r="I9">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J9">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>26.80919645619289</v>
@@ -1013,10 +1013,10 @@
         <v>241.282768105736</v>
       </c>
       <c r="S9">
-        <v>0.01550674969455162</v>
+        <v>0.008619080258817123</v>
       </c>
       <c r="T9">
-        <v>0.01550674969455162</v>
+        <v>0.008619080258817123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>32.583341</v>
       </c>
       <c r="I10">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J10">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>3.431405946278333</v>
+        <v>4.596057646239888</v>
       </c>
       <c r="R10">
-        <v>30.882653516505</v>
+        <v>41.36451881615899</v>
       </c>
       <c r="S10">
-        <v>0.001984764936773878</v>
+        <v>0.001477619435249466</v>
       </c>
       <c r="T10">
-        <v>0.001984764936773878</v>
+        <v>0.001477619435249466</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>32.583341</v>
       </c>
       <c r="I11">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J11">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>2.846509632729778</v>
+        <v>1.450675508002</v>
       </c>
       <c r="R11">
-        <v>25.618586694568</v>
+        <v>13.056079572018</v>
       </c>
       <c r="S11">
-        <v>0.001646454135617124</v>
+        <v>0.0004663880416334243</v>
       </c>
       <c r="T11">
-        <v>0.001646454135617124</v>
+        <v>0.0004663880416334243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>32.583341</v>
       </c>
       <c r="I12">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J12">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>122.6413712456753</v>
+        <v>87.90109634001344</v>
       </c>
       <c r="R12">
-        <v>1103.772341211078</v>
+        <v>791.1098670601209</v>
       </c>
       <c r="S12">
-        <v>0.07093718937868283</v>
+        <v>0.02825995196948849</v>
       </c>
       <c r="T12">
-        <v>0.07093718937868283</v>
+        <v>0.02825995196948849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>32.583341</v>
       </c>
       <c r="I13">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J13">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>5.110874434039889</v>
+        <v>2.083968944049222</v>
       </c>
       <c r="R13">
-        <v>45.997869906359</v>
+        <v>18.755720496443</v>
       </c>
       <c r="S13">
-        <v>0.002956188959204421</v>
+        <v>0.0006699900765393305</v>
       </c>
       <c r="T13">
-        <v>0.002956188959204422</v>
+        <v>0.0006699900765393304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H14">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I14">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J14">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>53.64573518521267</v>
+        <v>283.201811595456</v>
       </c>
       <c r="R14">
-        <v>482.8116166669141</v>
+        <v>2548.816304359103</v>
       </c>
       <c r="S14">
-        <v>0.0310293144763439</v>
+        <v>0.09104857534884407</v>
       </c>
       <c r="T14">
-        <v>0.03102931447634391</v>
+        <v>0.09104857534884407</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H15">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I15">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J15">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>63.28813182687467</v>
+        <v>94.99399326643199</v>
       </c>
       <c r="R15">
-        <v>569.593186441872</v>
+        <v>854.945939397888</v>
       </c>
       <c r="S15">
-        <v>0.03660658835779581</v>
+        <v>0.0305402981177296</v>
       </c>
       <c r="T15">
-        <v>0.03660658835779582</v>
+        <v>0.03054029811772961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H16">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I16">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J16">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>8.100476723890001</v>
+        <v>16.285376915808</v>
       </c>
       <c r="R16">
-        <v>72.90429051501</v>
+        <v>146.568392242272</v>
       </c>
       <c r="S16">
-        <v>0.004685409544786544</v>
+        <v>0.005235702267757179</v>
       </c>
       <c r="T16">
-        <v>0.004685409544786545</v>
+        <v>0.005235702267757179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H17">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I17">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J17">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>6.719719376037334</v>
+        <v>5.140230878015999</v>
       </c>
       <c r="R17">
-        <v>60.47747438433601</v>
+        <v>46.26207790214399</v>
       </c>
       <c r="S17">
-        <v>0.003886763504908004</v>
+        <v>0.001652569578460295</v>
       </c>
       <c r="T17">
-        <v>0.003886763504908005</v>
+        <v>0.001652569578460295</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H18">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I18">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J18">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>289.517937753484</v>
+        <v>311.4631267475519</v>
       </c>
       <c r="R18">
-        <v>2605.661439781356</v>
+        <v>2803.168140727968</v>
       </c>
       <c r="S18">
-        <v>0.167460527963306</v>
+        <v>0.100134507630092</v>
       </c>
       <c r="T18">
-        <v>0.167460527963306</v>
+        <v>0.100134507630092</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H19">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I19">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J19">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>12.06517679336867</v>
+        <v>7.384202363616</v>
       </c>
       <c r="R19">
-        <v>108.586591140318</v>
+        <v>66.457821272544</v>
       </c>
       <c r="S19">
-        <v>0.006978637978239848</v>
+        <v>0.002374000016126985</v>
       </c>
       <c r="T19">
-        <v>0.00697863797823985</v>
+        <v>0.002374000016126985</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H20">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I20">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J20">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>5.536777407237778</v>
+        <v>11.79655305204978</v>
       </c>
       <c r="R20">
-        <v>49.83099666514001</v>
+        <v>106.168977468448</v>
       </c>
       <c r="S20">
-        <v>0.003202536171077658</v>
+        <v>0.003792558187976733</v>
       </c>
       <c r="T20">
-        <v>0.00320253617107766</v>
+        <v>0.003792558187976734</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H21">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I21">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J21">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>6.531969358524444</v>
+        <v>3.956901528561778</v>
       </c>
       <c r="R21">
-        <v>58.78772422672</v>
+        <v>35.61211375705601</v>
       </c>
       <c r="S21">
-        <v>0.003778166720536739</v>
+        <v>0.001272132564906918</v>
       </c>
       <c r="T21">
-        <v>0.00377816672053674</v>
+        <v>0.001272132564906919</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H22">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I22">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J22">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>0.8360503655666667</v>
+        <v>0.6783548158737778</v>
       </c>
       <c r="R22">
-        <v>7.524453290099999</v>
+        <v>6.105193342864</v>
       </c>
       <c r="S22">
-        <v>0.0004835812133371835</v>
+        <v>0.0002180891401025413</v>
       </c>
       <c r="T22">
-        <v>0.0004835812133371836</v>
+        <v>0.0002180891401025413</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H23">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I23">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J23">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>0.6935423719288889</v>
+        <v>0.214112352992</v>
       </c>
       <c r="R23">
-        <v>6.241881347360001</v>
+        <v>1.927011176928</v>
       </c>
       <c r="S23">
-        <v>0.0004011529395011989</v>
+        <v>6.883651130155131E-05</v>
       </c>
       <c r="T23">
-        <v>0.000401152939501199</v>
+        <v>6.883651130155131E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H24">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I24">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J24">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>29.88115217750667</v>
+        <v>12.97375633911289</v>
       </c>
       <c r="R24">
-        <v>268.93036959756</v>
+        <v>116.763807052016</v>
       </c>
       <c r="S24">
-        <v>0.01728360445858744</v>
+        <v>0.004171025689929649</v>
       </c>
       <c r="T24">
-        <v>0.01728360445858744</v>
+        <v>0.00417102568992965</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H25">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I25">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J25">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>1.245247139464444</v>
+        <v>0.3075832546364445</v>
       </c>
       <c r="R25">
-        <v>11.20722425518</v>
+        <v>2.768249291728</v>
       </c>
       <c r="S25">
-        <v>0.0007202653660688523</v>
+        <v>9.88871398033753E-05</v>
       </c>
       <c r="T25">
-        <v>0.0007202653660688525</v>
+        <v>9.88871398033753E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H26">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I26">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J26">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>30.086992185362</v>
+        <v>110.7633338941602</v>
       </c>
       <c r="R26">
-        <v>270.7829296682581</v>
+        <v>996.8700050474421</v>
       </c>
       <c r="S26">
-        <v>0.01740266470286417</v>
+        <v>0.03561009618948862</v>
       </c>
       <c r="T26">
-        <v>0.01740266470286417</v>
+        <v>0.03561009618948862</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H27">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I27">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J27">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>35.494891087376</v>
+        <v>37.15319239955822</v>
       </c>
       <c r="R27">
-        <v>319.454019786384</v>
+        <v>334.378731596024</v>
       </c>
       <c r="S27">
-        <v>0.02053065605404099</v>
+        <v>0.01194464547590328</v>
       </c>
       <c r="T27">
-        <v>0.020530656054041</v>
+        <v>0.01194464547590328</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H28">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I28">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J28">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>4.54311939333</v>
+        <v>6.369389485031222</v>
       </c>
       <c r="R28">
-        <v>40.88807453997001</v>
+        <v>57.324505365281</v>
       </c>
       <c r="S28">
-        <v>0.002627792868762312</v>
+        <v>0.002047740567713605</v>
       </c>
       <c r="T28">
-        <v>0.002627792868762312</v>
+        <v>0.002047740567713605</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H29">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I29">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J29">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>3.768727255888001</v>
+        <v>2.010400660318</v>
       </c>
       <c r="R29">
-        <v>33.91854530299201</v>
+        <v>18.093605942862</v>
       </c>
       <c r="S29">
-        <v>0.002179875488606444</v>
+        <v>0.000646338082977384</v>
       </c>
       <c r="T29">
-        <v>0.002179875488606444</v>
+        <v>0.000646338082977384</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H30">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I30">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J30">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>162.374956753548</v>
+        <v>121.8166441425821</v>
       </c>
       <c r="R30">
-        <v>1461.374610781932</v>
+        <v>1096.349797283239</v>
       </c>
       <c r="S30">
-        <v>0.09391955537180151</v>
+        <v>0.03916370393422008</v>
       </c>
       <c r="T30">
-        <v>0.09391955537180154</v>
+        <v>0.03916370393422008</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H31">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I31">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J31">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>6.766705286894001</v>
+        <v>2.888042514048556</v>
       </c>
       <c r="R31">
-        <v>60.90034758204601</v>
+        <v>25.992382626437</v>
       </c>
       <c r="S31">
-        <v>0.003913940699868525</v>
+        <v>0.0009284974378152393</v>
       </c>
       <c r="T31">
-        <v>0.003913940699868525</v>
+        <v>0.0009284974378152392</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H32">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I32">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J32">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>32.48723717091544</v>
+        <v>326.2963644104815</v>
       </c>
       <c r="R32">
-        <v>292.385134538239</v>
+        <v>2936.667279694334</v>
       </c>
       <c r="S32">
-        <v>0.01879099419858026</v>
+        <v>0.1049033512664094</v>
       </c>
       <c r="T32">
-        <v>0.01879099419858026</v>
+        <v>0.1049033512664094</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H33">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I33">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J33">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>38.32656112671911</v>
+        <v>109.4491397108275</v>
       </c>
       <c r="R33">
-        <v>344.939050140472</v>
+        <v>985.042257397448</v>
       </c>
       <c r="S33">
-        <v>0.02216852679699314</v>
+        <v>0.0351875865047868</v>
       </c>
       <c r="T33">
-        <v>0.02216852679699314</v>
+        <v>0.03518758650478681</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H34">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I34">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J34">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>4.905555075681667</v>
+        <v>18.76350737569855</v>
       </c>
       <c r="R34">
-        <v>44.149995681135</v>
+        <v>168.871566381287</v>
       </c>
       <c r="S34">
-        <v>0.002837429864626209</v>
+        <v>0.006032414148343295</v>
       </c>
       <c r="T34">
-        <v>0.002837429864626209</v>
+        <v>0.006032414148343296</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H35">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I35">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J35">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>4.069384385126222</v>
+        <v>5.922414967185999</v>
       </c>
       <c r="R35">
-        <v>36.624459466136</v>
+        <v>53.301734704674</v>
       </c>
       <c r="S35">
-        <v>0.002353779053922091</v>
+        <v>0.001904039534031032</v>
       </c>
       <c r="T35">
-        <v>0.002353779053922091</v>
+        <v>0.001904039534031033</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H36">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I36">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J36">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>175.3287167481006</v>
+        <v>358.8581772591947</v>
       </c>
       <c r="R36">
-        <v>1577.958450732906</v>
+        <v>3229.723595332753</v>
       </c>
       <c r="S36">
-        <v>0.1014121601638569</v>
+        <v>0.1153718813014008</v>
       </c>
       <c r="T36">
-        <v>0.1014121601638569</v>
+        <v>0.1153718813014008</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H37">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I37">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J37">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>7.306531612288111</v>
+        <v>8.507849479299889</v>
       </c>
       <c r="R37">
-        <v>65.75878451059299</v>
+        <v>76.57064531369899</v>
       </c>
       <c r="S37">
-        <v>0.004226182497943093</v>
+        <v>0.002735249361607857</v>
       </c>
       <c r="T37">
-        <v>0.004226182497943095</v>
+        <v>0.002735249361607857</v>
       </c>
     </row>
   </sheetData>
